--- a/output/execution_times/execution_times_python_medium.xlsx
+++ b/output/execution_times/execution_times_python_medium.xlsx
@@ -7,13 +7,19 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="LR_scikit" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="LR_scipy" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ANOVA - own" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ANOVA - OOP" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ANOVA_scipy" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ANOVA_statsmodels" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="LR - Refactored" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="LR - OOP - excel" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="LR - OOP" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LR - procedural" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="LR - scipy" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LR - statsmodels" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="LR - scikit" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="LR - procedural - excel" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="ANOVA - procedural" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ANOVA - scipy" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="ANOVA - statsmodels" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ANOVA - procedural - excel" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="ANOVA - OOP" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="ANOVA - OOP - excel" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +475,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LR_scikit</t>
+          <t>LR - OOP - excel</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,11 +484,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4939103126525879</v>
+        <v>0.7056558132171631</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-04-06 17:27:18</t>
+          <t>2025-04-12 12:48:08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -494,7 +500,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LR_scikit</t>
+          <t>LR - OOP - excel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -503,14 +509,1398 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4917213916778564</v>
+        <v>0.694730281829834</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-04-06 17:27:38</t>
+          <t>2025-04-12 12:48:10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LR - OOP - excel</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6961109638214111</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-04-12 12:48:13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LR - OOP - excel</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6992514133453369</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-04-12 12:48:15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LR - OOP - excel</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7001223564147949</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-04-12 12:48:18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LR - OOP - excel</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.696326732635498</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-04-12 12:48:20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LR - OOP - excel</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6958281993865967</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-04-12 12:48:23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LR - OOP - excel</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6963138580322266</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-04-12 12:48:25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LR - OOP - excel</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6940808296203613</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-04-12 12:48:28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LR - OOP - excel</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6996662616729736</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-04-12 12:48:30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Execution_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ANOVA - statsmodels</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1.098890542984009</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:37:06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ANOVA - statsmodels</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.099142074584961</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:37:09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ANOVA - statsmodels</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1.090713024139404</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:37:12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ANOVA - statsmodels</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.09186840057373</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:37:14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ANOVA - statsmodels</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1.094543933868408</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:37:17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ANOVA - statsmodels</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1.100067377090454</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:37:20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ANOVA - statsmodels</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1.089864015579224</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:37:23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ANOVA - statsmodels</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1.096264362335205</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:37:25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ANOVA - statsmodels</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1.092295169830322</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:37:28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ANOVA - statsmodels</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1.088230133056641</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:37:31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Execution_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ANOVA - procedural - excel</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1.034409761428833</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:44:46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ANOVA - procedural - excel</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.024275779724121</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:44:49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ANOVA - procedural - excel</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1.030716180801392</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:44:52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ANOVA - procedural - excel</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.02756142616272</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:44:54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ANOVA - procedural - excel</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1.030943632125854</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:44:57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ANOVA - procedural - excel</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1.029094457626343</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:45:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ANOVA - procedural - excel</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1.030235052108765</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:45:02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ANOVA - procedural - excel</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1.024065017700195</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:45:05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ANOVA - procedural - excel</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1.030692338943481</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:45:08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ANOVA - procedural - excel</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1.026681423187256</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:45:10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Execution_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ANOVA - OOP</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.989987850189209</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:52:24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ANOVA - OOP</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9902853965759277</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:52:26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ANOVA - OOP</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9951024055480957</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:52:29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ANOVA - OOP</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9930963516235352</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:52:32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ANOVA - OOP</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9936790466308594</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:52:34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ANOVA - OOP</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.992271900177002</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:52:37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ANOVA - OOP</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9964354038238525</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:52:40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ANOVA - OOP</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9974713325500488</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:52:42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ANOVA - OOP</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9897170066833496</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:52:45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ANOVA - OOP</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9962921142578125</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:52:48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Execution_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ANOVA - OOP - excel</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1.031751155853271</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:55:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ANOVA - OOP - excel</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.030587434768677</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:55:33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ANOVA - OOP - excel</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1.025443315505981</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:55:36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ANOVA - OOP - excel</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.035786151885986</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:55:38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ANOVA - OOP - excel</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1.023318767547607</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:55:41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ANOVA - OOP - excel</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1.032204627990723</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:55:44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ANOVA - OOP - excel</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1.024348735809326</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:55:46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ANOVA - OOP - excel</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1.032728672027588</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:55:49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ANOVA - OOP - excel</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1.025078296661377</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:55:52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ANOVA - OOP - excel</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1.033958911895752</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:55:54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Python</t>
         </is>
@@ -527,7 +1917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +1955,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LR_scipy</t>
+          <t>LR - OOP</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -574,14 +1964,239 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4974546432495117</v>
+        <v>0.2798025608062744</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-04-06 17:28:38</t>
+          <t>2025-04-12 12:59:34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LR - OOP</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2807903289794922</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-04-12 12:59:36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LR - OOP</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2791073322296143</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-04-12 12:59:38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LR - OOP</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2797915935516357</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-04-12 12:59:40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LR - OOP</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2809498310089111</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-04-12 12:59:42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LR - OOP</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2912144660949707</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-04-12 12:59:44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LR - OOP</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2822046279907227</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-04-12 12:59:46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LR - OOP</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2810804843902588</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-04-12 12:59:48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LR - OOP</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2801675796508789</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-04-12 12:59:50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LR - OOP</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2837433815002441</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-04-12 12:59:52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Python</t>
         </is>
@@ -598,7 +2213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,7 +2251,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ANOVA - own</t>
+          <t>LR - procedural</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -645,11 +2260,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.02904987335205078</v>
+        <v>0.3759224414825439</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-04-06 17:33:37</t>
+          <t>2025-04-12 14:19:46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -661,7 +2276,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANOVA - own</t>
+          <t>LR - procedural</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -670,11 +2285,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0292973518371582</v>
+        <v>0.3787024021148682</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-04-06 17:34:18</t>
+          <t>2025-04-12 14:19:48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -686,7 +2301,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ANOVA - own</t>
+          <t>LR - procedural</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -695,11 +2310,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.03413724899291992</v>
+        <v>0.376455545425415</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-04-06 17:34:53</t>
+          <t>2025-04-12 14:19:51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,7 +2326,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ANOVA - own</t>
+          <t>LR - procedural</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -720,11 +2335,11 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.02420186996459961</v>
+        <v>0.3798978328704834</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-04-06 17:35:45</t>
+          <t>2025-04-12 14:19:53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -736,7 +2351,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ANOVA - own</t>
+          <t>LR - procedural</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -745,11 +2360,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3593649864196777</v>
+        <v>0.3769350051879883</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-04-06 17:36:44</t>
+          <t>2025-04-12 14:19:55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -761,7 +2376,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ANOVA - own</t>
+          <t>LR - procedural</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -770,11 +2385,11 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.356097936630249</v>
+        <v>0.3791661262512207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-04-06 17:36:53</t>
+          <t>2025-04-12 14:19:57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -786,7 +2401,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANOVA - own</t>
+          <t>LR - procedural</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -795,11 +2410,11 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3541598320007324</v>
+        <v>0.3772902488708496</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-04-06 17:43:20</t>
+          <t>2025-04-12 14:19:59</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -811,7 +2426,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ANOVA - own</t>
+          <t>LR - procedural</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -820,11 +2435,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.054731130599976</v>
+        <v>0.3803713321685791</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-04-06 17:49:02</t>
+          <t>2025-04-12 14:20:01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -836,7 +2451,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ANOVA - own</t>
+          <t>LR - procedural</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -845,14 +2460,39 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3541407585144043</v>
+        <v>0.3812708854675293</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-04-06 17:49:15</t>
+          <t>2025-04-12 14:20:03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LR - procedural</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3808877468109131</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:20:05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Python</t>
         </is>
@@ -869,7 +2509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,7 +2547,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ANOVA - OOP</t>
+          <t>LR - scipy</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -916,11 +2556,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6485390663146973</v>
+        <v>0.4814860820770264</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-04-06 17:42:30</t>
+          <t>2025-04-12 14:20:08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -932,7 +2572,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANOVA - OOP</t>
+          <t>LR - scipy</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -941,11 +2581,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4923977851867676</v>
+        <v>0.4790997505187988</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-04-06 17:44:13</t>
+          <t>2025-04-12 14:20:10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -957,7 +2597,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ANOVA - OOP</t>
+          <t>LR - scipy</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -966,14 +2606,189 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5257952213287354</v>
+        <v>0.4808084964752197</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-04-06 17:45:20</t>
+          <t>2025-04-12 14:20:12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LR - scipy</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4813058376312256</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:20:14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LR - scipy</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4837291240692139</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:20:16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LR - scipy</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4800565242767334</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:20:18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LR - scipy</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.484966516494751</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:20:21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LR - scipy</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4805397987365723</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:20:23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LR - scipy</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4802918434143066</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:20:25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LR - scipy</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4807107448577881</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:20:27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Python</t>
         </is>
@@ -990,7 +2805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1028,7 +2843,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ANOVA_scipy</t>
+          <t>LR - statsmodels</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1037,11 +2852,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.032224893569946</v>
+        <v>0.4880640506744385</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-04-06 17:46:56</t>
+          <t>2025-04-12 14:20:29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1053,7 +2868,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANOVA_scipy</t>
+          <t>LR - statsmodels</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1062,14 +2877,214 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2856616973876953</v>
+        <v>0.4921038150787354</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-04-06 17:53:01</t>
+          <t>2025-04-12 14:20:31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LR - statsmodels</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4917094707489014</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:20:33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LR - statsmodels</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4888651371002197</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:20:36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LR - statsmodels</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4862196445465088</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:20:38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LR - statsmodels</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4889168739318848</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:20:40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LR - statsmodels</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4917166233062744</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:20:42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LR - statsmodels</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4890046119689941</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:20:44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LR - statsmodels</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.489189624786377</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:20:47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LR - statsmodels</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.48887038230896</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:20:49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Python</t>
         </is>
@@ -1086,7 +3101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1124,7 +3139,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ANOVA_statsmodels</t>
+          <t>LR - scikit</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1133,14 +3148,239 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2318601608276367</v>
+        <v>0.4030001163482666</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-04-06 17:52:41</t>
+          <t>2025-04-12 14:20:51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LR - scikit</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4038569927215576</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:20:53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LR - scikit</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.402620792388916</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:20:55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LR - scikit</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4078254699707031</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:20:57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LR - scikit</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4011471271514893</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:20:59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LR - scikit</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4023265838623047</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:21:01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LR - scikit</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4047138690948486</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:21:04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LR - scikit</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4050190448760986</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:21:06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LR - scikit</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4042031764984131</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:21:08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LR - scikit</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4033763408660889</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:21:10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Python</t>
         </is>
@@ -1157,7 +3397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1195,7 +3435,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LR - Refactored</t>
+          <t>LR - procedural - excel</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1204,11 +3444,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8561921119689941</v>
+        <v>0.8077602386474609</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-04-06 18:09:57</t>
+          <t>2025-04-12 14:32:17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1220,7 +3460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LR - Refactored</t>
+          <t>LR - procedural - excel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1229,14 +3469,806 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8274884223937988</v>
+        <v>0.7935395240783691</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-04-06 18:10:16</t>
+          <t>2025-04-12 14:32:20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LR - procedural - excel</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8043458461761475</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:32:23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LR - procedural - excel</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7935192584991455</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:32:25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LR - procedural - excel</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7885406017303467</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:32:28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LR - procedural - excel</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7920279502868652</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:32:30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LR - procedural - excel</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7903788089752197</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:32:33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LR - procedural - excel</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7883479595184326</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:32:35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LR - procedural - excel</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7943046092987061</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:32:38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LR - procedural - excel</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7905373573303223</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-04-12 14:32:41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Execution_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ANOVA - procedural</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9867792129516602</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:36:16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ANOVA - procedural</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9913060665130615</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:36:18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ANOVA - procedural</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9871389865875244</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:36:21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ANOVA - procedural</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9866676330566406</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:36:23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ANOVA - procedural</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9933772087097168</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:36:26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ANOVA - procedural</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9962732791900635</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:36:28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ANOVA - procedural</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.988257884979248</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:36:31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ANOVA - procedural</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9867680072784424</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:36:34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ANOVA - procedural</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9861249923706055</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:36:36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ANOVA - procedural</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9946210384368896</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:36:39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Computer</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Execution_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ANOVA - scipy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1.035975456237793</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:36:41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ANOVA - scipy</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.03626561164856</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:36:44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ANOVA - scipy</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1.03956151008606</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:36:46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ANOVA - scipy</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.038876533508301</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:36:49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ANOVA - scipy</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1.033870458602905</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:36:51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ANOVA - scipy</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1.043237686157227</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:36:54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ANOVA - scipy</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1.037945508956909</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:36:56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ANOVA - scipy</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1.048197031021118</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:36:58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ANOVA - scipy</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1.039952993392944</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:37:01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ANOVA - scipy</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Windows Ryzen 9 5900x 32GB</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1.038158893585205</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-04-12 15:37:03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Python</t>
         </is>
